--- a/medicine/Psychotrope/Vienna_(bière)/Vienna_(bière).xlsx
+++ b/medicine/Psychotrope/Vienna_(bière)/Vienna_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vienna_(bi%C3%A8re)</t>
+          <t>Vienna_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La vienna est un type de bière de fermentation basse brassée en Autriche à l'aide de malt torréfié de type vienna. Sa couleur est ambrée mais très limpide, sa mousse fine et compacte et sa teneur en alcool modérée. Elle s'apparente au bière de type märzen ou oktoberfestbier.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vienna_(bi%C3%A8re)</t>
+          <t>Vienna_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) « Origine »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?), sur allaboutbeer.com
  Portail de la bière   Portail de l'Autriche                    </t>
